--- a/ProjectS/src/test/resources/Swaglabs.xlsx
+++ b/ProjectS/src/test/resources/Swaglabs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15030" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15270" windowHeight="5505"/>
   </bookViews>
   <sheets>
     <sheet name="CheckInfo" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:O16"/>
 </workbook>
 </file>
 
@@ -385,7 +386,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
